--- a/Подсчет профиля.xlsx
+++ b/Подсчет профиля.xlsx
@@ -250,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,6 +293,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -574,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +642,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="22">
         <f>60/(E2)</f>
@@ -652,11 +653,11 @@
       </c>
       <c r="I2" s="23">
         <f>ROUND(F2*G2*H2,0)</f>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J2" s="10">
         <f>F2/K$2</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -705,22 +706,22 @@
         <v>59</v>
       </c>
       <c r="F3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="22">
-        <f t="shared" ref="G3:G6" si="3">60/(E3)</f>
+        <f>60/(E3)</f>
         <v>1.0169491525423728</v>
       </c>
       <c r="H3" s="6">
         <v>20</v>
       </c>
       <c r="I3" s="23">
-        <f t="shared" ref="I3:I6" si="4">ROUND(F3*G3*H3,0)</f>
-        <v>20</v>
+        <f t="shared" ref="I3:I6" si="3">ROUND(F3*G3*H3,0)</f>
+        <v>41</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J6" si="5">F3/K$2</f>
-        <v>0.1</v>
+        <f t="shared" ref="J3:J6" si="4">F3/K$2</f>
+        <v>0.2</v>
       </c>
       <c r="M3">
         <v>4.4999000000000002</v>
@@ -732,7 +733,7 @@
         <v>4.1345000000000001</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R6" si="6">S3-C3</f>
+        <f t="shared" ref="R3:R6" si="5">S3-C3</f>
         <v>49.665000000000006</v>
       </c>
       <c r="S3">
@@ -766,22 +767,22 @@
         <v>42</v>
       </c>
       <c r="F4" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G3:G6" si="6">60/(E4)</f>
         <v>1.4285714285714286</v>
       </c>
       <c r="H4" s="6">
         <v>20</v>
       </c>
       <c r="I4" s="23">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="J4" s="10">
         <f t="shared" si="4"/>
-        <v>86</v>
-      </c>
-      <c r="J4" s="10">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M4">
         <v>3.1711</v>
@@ -793,7 +794,7 @@
         <v>2.9895999999999998</v>
       </c>
       <c r="R4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35.253699999999995</v>
       </c>
       <c r="S4">
@@ -830,18 +831,18 @@
         <v>2</v>
       </c>
       <c r="G5" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="H5" s="6">
         <v>20</v>
       </c>
       <c r="I5" s="23">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="J5" s="10">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="J5" s="10">
-        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
       <c r="M5">
@@ -854,11 +855,11 @@
         <v>3.6835</v>
       </c>
       <c r="R5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29.702500000000004</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S3:S6" si="7">MAX(T5:V5)</f>
+        <f t="shared" ref="S5:S6" si="7">MAX(T5:V5)</f>
         <v>33.386000000000003</v>
       </c>
       <c r="T5">
@@ -888,22 +889,22 @@
         <v>54</v>
       </c>
       <c r="F6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="H6" s="6">
         <v>20</v>
       </c>
       <c r="I6" s="23">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
       <c r="J6" s="10">
-        <f t="shared" si="5"/>
-        <v>0.1</v>
+        <f>F6/K$2</f>
+        <v>0.2</v>
       </c>
       <c r="M6">
         <v>4.9424000000000001</v>
@@ -915,7 +916,7 @@
         <v>3.7711000000000001</v>
       </c>
       <c r="R6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>43.969900000000003</v>
       </c>
       <c r="S6">
@@ -944,11 +945,11 @@
       <c r="H7" s="6"/>
       <c r="I7" s="23">
         <f>SUM(I2:I6)</f>
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="J7" s="11">
         <f>SUM(J2:J6)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -986,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="18">
-        <v>360</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1002,7 +1003,7 @@
       </c>
       <c r="D11" s="18">
         <f>D$10*C11</f>
-        <v>720</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1017,8 +1018,8 @@
         <v>3</v>
       </c>
       <c r="D12" s="18">
-        <f t="shared" ref="D12:D14" si="9">D$10*C12</f>
-        <v>1080</v>
+        <f>D$10*C12</f>
+        <v>861</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1033,8 +1034,8 @@
         <v>4</v>
       </c>
       <c r="D13" s="18">
-        <f t="shared" si="9"/>
-        <v>1440</v>
+        <f t="shared" ref="D12:D14" si="9">D$10*C13</f>
+        <v>1148</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1050,13 +1051,48 @@
       </c>
       <c r="D14" s="18">
         <f t="shared" si="9"/>
-        <v>1800</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D15" s="21">
-        <f>SUM(D10:D14)</f>
-        <v>5400</v>
+        <f>SUM(D10:D12)</f>
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>SUM(D20:D24)</f>
+        <v>559</v>
+      </c>
+      <c r="E25" s="26">
+        <f>D25/D11</f>
+        <v>0.97386759581881532</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1106,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1135,10 @@
       </c>
       <c r="B2" s="24">
         <f>Лист1!I2</f>
-        <v>120</v>
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" s="25" t="e">
         <f>1-B2/C2</f>
@@ -1113,7 +1152,10 @@
       </c>
       <c r="B3" s="24">
         <f>Лист1!I3</f>
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" s="25" t="e">
         <f t="shared" ref="D3:D6" si="0">1-B3/C3</f>
@@ -1127,7 +1169,7 @@
       </c>
       <c r="B4" s="24">
         <f>Лист1!I4</f>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="D4" s="25" t="e">
         <f t="shared" si="0"/>
@@ -1155,7 +1197,7 @@
       </c>
       <c r="B6" s="24">
         <f>Лист1!I6</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D6" s="25" t="e">
         <f t="shared" si="0"/>

--- a/Подсчет профиля.xlsx
+++ b/Подсчет профиля.xlsx
@@ -112,7 +112,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -246,11 +247,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,11 +295,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,7 +584,7 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,29 +637,29 @@
       </c>
       <c r="C2" s="8">
         <f>MAX(M2:O2)</f>
-        <v>2.8403999999999998</v>
+        <v>2.2336</v>
       </c>
       <c r="D2" s="8">
         <f>R2</f>
-        <v>24.319500000000001</v>
+        <v>15.038499999999999</v>
       </c>
       <c r="E2" s="18">
         <f>ROUND(C2*2+D2,0)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F2" s="8">
         <v>2</v>
       </c>
       <c r="G2" s="22">
         <f>60/(E2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="6">
         <v>20</v>
       </c>
       <c r="I2" s="23">
         <f>ROUND(F2*G2*H2,0)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="J2" s="10">
         <f>F2/K$2</f>
@@ -663,30 +669,30 @@
         <v>10</v>
       </c>
       <c r="M2">
-        <v>2.7810000000000001</v>
+        <v>2.0343</v>
       </c>
       <c r="N2">
-        <v>2.6547000000000001</v>
+        <v>2.2336</v>
       </c>
       <c r="O2">
-        <v>2.8403999999999998</v>
+        <v>2.2172999999999998</v>
       </c>
       <c r="R2">
         <f>S2-C2</f>
-        <v>24.319500000000001</v>
+        <v>15.038499999999999</v>
       </c>
       <c r="S2">
         <f>MAX(T2:V2)</f>
-        <v>27.1599</v>
+        <v>17.272099999999998</v>
       </c>
       <c r="T2">
-        <v>27.1599</v>
+        <v>17.272099999999998</v>
       </c>
       <c r="U2">
-        <v>27.081600000000002</v>
+        <v>17.202000000000002</v>
       </c>
       <c r="V2">
-        <v>27.063800000000001</v>
+        <v>17.091200000000001</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -695,59 +701,59 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C6" si="0">MAX(M3:O3)</f>
-        <v>4.4999000000000002</v>
+        <v>4.1952999999999996</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D6" si="1">R3</f>
-        <v>49.665000000000006</v>
+        <v>24.7745</v>
       </c>
       <c r="E3" s="18">
         <f t="shared" ref="E3:E6" si="2">ROUND(C3*2+D3,0)</f>
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F3" s="8">
         <v>2</v>
       </c>
       <c r="G3" s="22">
         <f>60/(E3)</f>
-        <v>1.0169491525423728</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="H3" s="6">
         <v>20</v>
       </c>
       <c r="I3" s="23">
         <f t="shared" ref="I3:I6" si="3">ROUND(F3*G3*H3,0)</f>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J6" si="4">F3/K$2</f>
+        <f t="shared" ref="J3:J5" si="4">F3/K$2</f>
         <v>0.2</v>
       </c>
       <c r="M3">
-        <v>4.4999000000000002</v>
+        <v>4.1418999999999997</v>
       </c>
       <c r="N3">
-        <v>4.0949999999999998</v>
+        <v>4.1952999999999996</v>
       </c>
       <c r="O3">
-        <v>4.1345000000000001</v>
+        <v>4.0278999999999998</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R6" si="5">S3-C3</f>
-        <v>49.665000000000006</v>
+        <f>S3-C3</f>
+        <v>24.7745</v>
       </c>
       <c r="S3">
         <f>MAX(T3:V3)</f>
-        <v>54.164900000000003</v>
+        <v>28.969799999999999</v>
       </c>
       <c r="T3">
-        <v>54.122999999999998</v>
+        <v>28.7256</v>
       </c>
       <c r="U3">
-        <v>54.164900000000003</v>
+        <v>28.825600000000001</v>
       </c>
       <c r="V3">
-        <v>53.9617</v>
+        <v>28.969799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -756,59 +762,59 @@
       </c>
       <c r="C4" s="8">
         <f t="shared" si="0"/>
-        <v>3.1711</v>
+        <v>14.470800000000001</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="1"/>
-        <v>35.253699999999995</v>
+        <v>25.0427</v>
       </c>
       <c r="E4" s="18">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F4" s="8">
         <v>2</v>
       </c>
       <c r="G4" s="22">
-        <f t="shared" ref="G3:G6" si="6">60/(E4)</f>
-        <v>1.4285714285714286</v>
+        <f t="shared" ref="G4:G6" si="5">60/(E4)</f>
+        <v>1.1111111111111112</v>
       </c>
       <c r="H4" s="6">
         <v>20</v>
       </c>
       <c r="I4" s="23">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="M4">
-        <v>3.1711</v>
+        <v>13.824999999999999</v>
       </c>
       <c r="N4">
-        <v>2.9798</v>
+        <v>14.470800000000001</v>
       </c>
       <c r="O4">
-        <v>2.9895999999999998</v>
+        <v>13.3622</v>
       </c>
       <c r="R4">
-        <f t="shared" si="5"/>
-        <v>35.253699999999995</v>
+        <f t="shared" ref="R4:R6" si="6">S4-C4</f>
+        <v>25.0427</v>
       </c>
       <c r="S4">
         <f>MAX(T4:V4)</f>
-        <v>38.424799999999998</v>
+        <v>39.513500000000001</v>
       </c>
       <c r="T4">
-        <v>38.424799999999998</v>
+        <v>39.513500000000001</v>
       </c>
       <c r="U4">
-        <v>37.855800000000002</v>
+        <v>38.326799999999999</v>
       </c>
       <c r="V4">
-        <v>37.6357</v>
+        <v>38.481299999999997</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -817,59 +823,59 @@
       </c>
       <c r="C5" s="8">
         <f>MAX(N5:O5)</f>
-        <v>3.6835</v>
+        <v>13.7539</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="1"/>
-        <v>29.702500000000004</v>
+        <v>30.740600000000001</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
       </c>
       <c r="G5" s="22">
-        <f t="shared" si="6"/>
-        <v>1.6216216216216217</v>
+        <f t="shared" si="5"/>
+        <v>1.0344827586206897</v>
       </c>
       <c r="H5" s="6">
         <v>20</v>
       </c>
       <c r="I5" s="23">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="M5">
-        <v>3.1238000000000001</v>
+        <v>13.4649</v>
       </c>
       <c r="N5">
-        <v>2.9355000000000002</v>
+        <v>13.7539</v>
       </c>
       <c r="O5">
-        <v>3.6835</v>
+        <v>13.6957</v>
       </c>
       <c r="R5">
-        <f t="shared" si="5"/>
-        <v>29.702500000000004</v>
+        <f t="shared" si="6"/>
+        <v>30.740600000000001</v>
       </c>
       <c r="S5">
         <f t="shared" ref="S5:S6" si="7">MAX(T5:V5)</f>
-        <v>33.386000000000003</v>
+        <v>44.494500000000002</v>
       </c>
       <c r="T5">
-        <v>32.983600000000003</v>
+        <v>43.576999999999998</v>
       </c>
       <c r="U5">
-        <v>32.855800000000002</v>
+        <v>43.213999999999999</v>
       </c>
       <c r="V5">
-        <v>33.386000000000003</v>
+        <v>44.494500000000002</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -878,59 +884,59 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>4.9424000000000001</v>
+        <v>10.455399999999999</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
-        <v>43.969900000000003</v>
+        <v>29.055600000000005</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" s="8">
         <v>2</v>
       </c>
       <c r="G6" s="22">
-        <f t="shared" si="6"/>
-        <v>1.1111111111111112</v>
+        <f t="shared" si="5"/>
+        <v>1.2</v>
       </c>
       <c r="H6" s="6">
         <v>20</v>
       </c>
       <c r="I6" s="23">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f>ROUND(F6*G6*H6,0)</f>
+        <v>48</v>
       </c>
       <c r="J6" s="10">
         <f>F6/K$2</f>
         <v>0.2</v>
       </c>
       <c r="M6">
-        <v>4.9424000000000001</v>
+        <v>10.455399999999999</v>
       </c>
       <c r="N6">
-        <v>4.6619000000000002</v>
+        <v>9.4741</v>
       </c>
       <c r="O6">
-        <v>3.7711000000000001</v>
+        <v>9.2794000000000008</v>
       </c>
       <c r="R6">
-        <f t="shared" si="5"/>
-        <v>43.969900000000003</v>
+        <f t="shared" si="6"/>
+        <v>29.055600000000005</v>
       </c>
       <c r="S6">
         <f t="shared" si="7"/>
-        <v>48.912300000000002</v>
+        <v>39.511000000000003</v>
       </c>
       <c r="T6">
-        <v>48.742699999999999</v>
+        <v>39.511000000000003</v>
       </c>
       <c r="U6">
-        <v>48.912300000000002</v>
+        <v>38.6768</v>
       </c>
       <c r="V6">
-        <v>48.750399999999999</v>
+        <v>39.128300000000003</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -945,7 +951,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="23">
         <f>SUM(I2:I6)</f>
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="J7" s="11">
         <f>SUM(J2:J6)</f>
@@ -986,9 +992,11 @@
         <f>B10/K$2</f>
         <v>1</v>
       </c>
-      <c r="D10" s="18">
-        <v>287</v>
-      </c>
+      <c r="D10" s="28">
+        <f>I7</f>
+        <v>326</v>
+      </c>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1003,7 +1011,7 @@
       </c>
       <c r="D11" s="18">
         <f>D$10*C11</f>
-        <v>574</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1019,7 +1027,7 @@
       </c>
       <c r="D12" s="18">
         <f>D$10*C12</f>
-        <v>861</v>
+        <v>978</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1034,8 +1042,8 @@
         <v>4</v>
       </c>
       <c r="D13" s="18">
-        <f t="shared" ref="D12:D14" si="9">D$10*C13</f>
-        <v>1148</v>
+        <f t="shared" ref="D13:D14" si="9">D$10*C13</f>
+        <v>1304</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1051,49 +1059,37 @@
       </c>
       <c r="D14" s="18">
         <f t="shared" si="9"/>
-        <v>1435</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D15" s="21">
         <f>SUM(D10:D12)</f>
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <f>SUM(D20:D24)</f>
-        <v>559</v>
-      </c>
-      <c r="E25" s="26">
-        <f>D25/D11</f>
-        <v>0.97386759581881532</v>
-      </c>
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="25"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="27"/>
+      <c r="F25" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1135,7 +1131,7 @@
       </c>
       <c r="B2" s="24">
         <f>Лист1!I2</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1152,7 +1148,7 @@
       </c>
       <c r="B3" s="24">
         <f>Лист1!I3</f>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1169,7 +1165,7 @@
       </c>
       <c r="B4" s="24">
         <f>Лист1!I4</f>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D4" s="25" t="e">
         <f t="shared" si="0"/>
@@ -1183,7 +1179,7 @@
       </c>
       <c r="B5" s="24">
         <f>Лист1!I5</f>
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D5" s="25" t="e">
         <f t="shared" si="0"/>
@@ -1197,7 +1193,7 @@
       </c>
       <c r="B6" s="24">
         <f>Лист1!I6</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" s="25" t="e">
         <f t="shared" si="0"/>

--- a/Подсчет профиля.xlsx
+++ b/Подсчет профиля.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yarik\Desktop\НТ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yarik\Desktop\Итоговое ДЗ LR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>Интенсивность</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Количество VU</t>
   </si>
@@ -106,15 +103,25 @@
   </si>
   <si>
     <t>S5_errbuy_buy_ticket_view</t>
+  </si>
+  <si>
+    <t>Ступень стабильной нагрузки</t>
+  </si>
+  <si>
+    <t>Интенсивность за 20 минут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интенсивность за час </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -175,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -246,13 +253,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -290,20 +322,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
-    <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,85 +650,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F33:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>2</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8">
         <f>MAX(M2:O2)</f>
-        <v>2.2336</v>
+        <v>3.556</v>
       </c>
       <c r="D2" s="8">
         <f>R2</f>
-        <v>15.038499999999999</v>
+        <v>19.4529</v>
       </c>
       <c r="E2" s="18">
         <f>ROUND(C2*2+D2,0)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8">
         <v>2</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <f>60/(E2)</f>
-        <v>3</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="H2" s="6">
         <v>20</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <f>ROUND(F2*G2*H2,0)</f>
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="J2" s="10">
         <f>F2/K$2</f>
@@ -669,289 +739,289 @@
         <v>10</v>
       </c>
       <c r="M2">
-        <v>2.0343</v>
+        <v>2.8925000000000001</v>
       </c>
       <c r="N2">
-        <v>2.2336</v>
+        <v>3.0632999999999999</v>
       </c>
       <c r="O2">
-        <v>2.2172999999999998</v>
+        <v>3.556</v>
       </c>
       <c r="R2">
         <f>S2-C2</f>
-        <v>15.038499999999999</v>
+        <v>19.4529</v>
       </c>
       <c r="S2">
         <f>MAX(T2:V2)</f>
-        <v>17.272099999999998</v>
+        <v>23.008900000000001</v>
       </c>
       <c r="T2">
-        <v>17.272099999999998</v>
+        <v>23.008900000000001</v>
       </c>
       <c r="U2">
-        <v>17.202000000000002</v>
+        <v>22.7895</v>
       </c>
       <c r="V2">
-        <v>17.091200000000001</v>
+        <v>22.554300000000001</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C6" si="0">MAX(M3:O3)</f>
-        <v>4.1952999999999996</v>
+        <v>4.7698999999999998</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D6" si="1">R3</f>
-        <v>24.7745</v>
+        <v>24.045000000000002</v>
       </c>
       <c r="E3" s="18">
         <f t="shared" ref="E3:E6" si="2">ROUND(C3*2+D3,0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <f>60/(E3)</f>
-        <v>1.8181818181818181</v>
+        <v>1.7647058823529411</v>
       </c>
       <c r="H3" s="6">
         <v>20</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <f t="shared" ref="I3:I6" si="3">ROUND(F3*G3*H3,0)</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J5" si="4">F3/K$2</f>
         <v>0.2</v>
       </c>
       <c r="M3">
-        <v>4.1418999999999997</v>
+        <v>4.4016000000000002</v>
       </c>
       <c r="N3">
-        <v>4.1952999999999996</v>
+        <v>4.7698999999999998</v>
       </c>
       <c r="O3">
-        <v>4.0278999999999998</v>
+        <v>3.7416999999999998</v>
       </c>
       <c r="R3">
         <f>S3-C3</f>
-        <v>24.7745</v>
+        <v>24.045000000000002</v>
       </c>
       <c r="S3">
         <f>MAX(T3:V3)</f>
-        <v>28.969799999999999</v>
+        <v>28.814900000000002</v>
       </c>
       <c r="T3">
-        <v>28.7256</v>
+        <v>28.814900000000002</v>
       </c>
       <c r="U3">
-        <v>28.825600000000001</v>
+        <v>28.670200000000001</v>
       </c>
       <c r="V3">
-        <v>28.969799999999999</v>
+        <v>28.604600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" si="0"/>
-        <v>14.470800000000001</v>
+        <v>12.7593</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="1"/>
-        <v>25.0427</v>
+        <v>24.595099999999999</v>
       </c>
       <c r="E4" s="18">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <f t="shared" ref="G4:G6" si="5">60/(E4)</f>
-        <v>1.1111111111111112</v>
+        <v>1.2</v>
       </c>
       <c r="H4" s="6">
         <v>20</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J4" s="10">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="M4">
-        <v>13.824999999999999</v>
+        <v>12.7593</v>
       </c>
       <c r="N4">
-        <v>14.470800000000001</v>
+        <v>11.6119</v>
       </c>
       <c r="O4">
-        <v>13.3622</v>
+        <v>12.1004</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R6" si="6">S4-C4</f>
-        <v>25.0427</v>
+        <v>24.595099999999999</v>
       </c>
       <c r="S4">
         <f>MAX(T4:V4)</f>
-        <v>39.513500000000001</v>
+        <v>37.354399999999998</v>
       </c>
       <c r="T4">
-        <v>39.513500000000001</v>
+        <v>37.209699999999998</v>
       </c>
       <c r="U4">
-        <v>38.326799999999999</v>
+        <v>36.566800000000001</v>
       </c>
       <c r="V4">
-        <v>38.481299999999997</v>
+        <v>37.354399999999998</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8">
         <f>MAX(N5:O5)</f>
-        <v>13.7539</v>
+        <v>12.629899999999999</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="1"/>
-        <v>30.740600000000001</v>
+        <v>29.890100000000004</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8">
         <v>2</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <f t="shared" si="5"/>
-        <v>1.0344827586206897</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="H5" s="6">
         <v>20</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="M5">
-        <v>13.4649</v>
+        <v>13.164199999999999</v>
       </c>
       <c r="N5">
-        <v>13.7539</v>
+        <v>12.629899999999999</v>
       </c>
       <c r="O5">
-        <v>13.6957</v>
+        <v>11.5945</v>
       </c>
       <c r="R5">
         <f t="shared" si="6"/>
-        <v>30.740600000000001</v>
+        <v>29.890100000000004</v>
       </c>
       <c r="S5">
         <f t="shared" ref="S5:S6" si="7">MAX(T5:V5)</f>
-        <v>44.494500000000002</v>
+        <v>42.52</v>
       </c>
       <c r="T5">
-        <v>43.576999999999998</v>
+        <v>42.52</v>
       </c>
       <c r="U5">
-        <v>43.213999999999999</v>
+        <v>42.338299999999997</v>
       </c>
       <c r="V5">
-        <v>44.494500000000002</v>
+        <v>41.941699999999997</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
-        <v>10.455399999999999</v>
+        <v>8.7903000000000002</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="1"/>
-        <v>29.055600000000005</v>
+        <v>29.777999999999999</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <f t="shared" si="5"/>
-        <v>1.2</v>
+        <v>1.2765957446808511</v>
       </c>
       <c r="H6" s="6">
         <v>20</v>
       </c>
-      <c r="I6" s="23">
-        <f>ROUND(F6*G6*H6,0)</f>
-        <v>48</v>
+      <c r="I6" s="22">
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="J6" s="10">
         <f>F6/K$2</f>
         <v>0.2</v>
       </c>
       <c r="M6">
-        <v>10.455399999999999</v>
+        <v>8.7794000000000008</v>
       </c>
       <c r="N6">
-        <v>9.4741</v>
+        <v>8.7250999999999994</v>
       </c>
       <c r="O6">
-        <v>9.2794000000000008</v>
+        <v>8.7903000000000002</v>
       </c>
       <c r="R6">
         <f t="shared" si="6"/>
-        <v>29.055600000000005</v>
+        <v>29.777999999999999</v>
       </c>
       <c r="S6">
         <f t="shared" si="7"/>
-        <v>39.511000000000003</v>
+        <v>38.568300000000001</v>
       </c>
       <c r="T6">
-        <v>39.511000000000003</v>
+        <v>37.915199999999999</v>
       </c>
       <c r="U6">
-        <v>38.6768</v>
+        <v>38.568300000000001</v>
       </c>
       <c r="V6">
-        <v>39.128300000000003</v>
+        <v>38.369199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="9"/>
       <c r="F7" s="6"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <f>SUM(I2:I6)</f>
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="J7" s="11">
         <f>SUM(J2:J6)</f>
@@ -972,124 +1042,208 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="27">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="28">
         <f>B10/K$2</f>
         <v>1</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="29">
         <f>I7</f>
-        <v>326</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>303</v>
+      </c>
+      <c r="E10" s="38">
+        <v>909</v>
+      </c>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="27">
+        <v>20</v>
+      </c>
+      <c r="C11" s="28">
+        <f>B11/K$2</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="30">
+        <f>D$10*C11</f>
+        <v>606</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
-        <v>20</v>
-      </c>
-      <c r="C11" s="10">
-        <f t="shared" ref="C11:C14" si="8">B11/K$2</f>
-        <v>2</v>
-      </c>
-      <c r="D11" s="18">
-        <f>D$10*C11</f>
-        <v>652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="27">
+        <v>30</v>
+      </c>
+      <c r="C12" s="28">
+        <f t="shared" ref="C12:C14" si="8">B12/K$2</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="30">
+        <f>D$10*C12</f>
+        <v>909</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
-        <v>30</v>
-      </c>
-      <c r="C12" s="10">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="D12" s="18">
-        <f>D$10*C12</f>
-        <v>978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="B13" s="27">
         <v>40</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="28">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="30">
         <f t="shared" ref="D13:D14" si="9">D$10*C13</f>
-        <v>1304</v>
-      </c>
+        <v>1212</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="27">
         <v>50</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="28">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="30">
         <f t="shared" si="9"/>
-        <v>1630</v>
-      </c>
+        <v>1515</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D15" s="21">
-        <f>SUM(D10:D12)</f>
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="25"/>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="26"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="26"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="26"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="27"/>
-      <c r="F25" s="25"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="33">
+        <v>18</v>
+      </c>
+      <c r="C17" s="34">
+        <f>B17/K$2</f>
+        <v>1.8</v>
+      </c>
+      <c r="D17" s="35">
+        <f>D$10*C17</f>
+        <v>545.4</v>
+      </c>
+      <c r="E17" s="36">
+        <f>D17*3</f>
+        <v>1636.1999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="25"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="42"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="25"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="25"/>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="25"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="25"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="44"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="23"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="23"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="23"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="23"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="43"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="23"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="23"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1112,16 +1266,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,14 +1283,14 @@
         <f>Лист1!B2</f>
         <v>S1_buy_ticket</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <f>Лист1!I2</f>
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="25" t="e">
+      <c r="D2" s="24" t="e">
         <f>1-B2/C2</f>
         <v>#DIV/0!</v>
       </c>
@@ -1146,14 +1300,14 @@
         <f>Лист1!B3</f>
         <v>S2_buy_2tickets</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <f>Лист1!I3</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="25" t="e">
+      <c r="D3" s="24" t="e">
         <f t="shared" ref="D3:D6" si="0">1-B3/C3</f>
         <v>#DIV/0!</v>
       </c>
@@ -1163,11 +1317,11 @@
         <f>Лист1!B4</f>
         <v>S3_view_tickets</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <f>Лист1!I4</f>
-        <v>44</v>
-      </c>
-      <c r="D4" s="25" t="e">
+        <v>48</v>
+      </c>
+      <c r="D4" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1177,11 +1331,11 @@
         <f>Лист1!B5</f>
         <v>S4_view_buy_ticket</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <f>Лист1!I5</f>
-        <v>41</v>
-      </c>
-      <c r="D5" s="25" t="e">
+        <v>44</v>
+      </c>
+      <c r="D5" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1191,11 +1345,11 @@
         <f>Лист1!B6</f>
         <v>S5_errbuy_buy_ticket_view</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <f>Лист1!I6</f>
-        <v>48</v>
-      </c>
-      <c r="D6" s="25" t="e">
+        <v>51</v>
+      </c>
+      <c r="D6" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
